--- a/INTLINE/data/136/BOI/Balance of payments and Current Account monthly_historical.xlsx
+++ b/INTLINE/data/136/BOI/Balance of payments and Current Account monthly_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XD32"/>
+  <dimension ref="A1:XE32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3502,6 +3502,11 @@
           <t>2022-03</t>
         </is>
       </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5388,7 +5393,10 @@
         <v>57740.558</v>
       </c>
       <c r="XD2" t="n">
-        <v>67450.361</v>
+        <v>67603.944</v>
+      </c>
+      <c r="XE2" t="n">
+        <v>63584.747</v>
       </c>
     </row>
     <row r="3">
@@ -7276,7 +7284,10 @@
         <v>58307.338</v>
       </c>
       <c r="XD3" t="n">
-        <v>67896.28</v>
+        <v>68049.86199999999</v>
+      </c>
+      <c r="XE3" t="n">
+        <v>63864.377</v>
       </c>
     </row>
     <row r="4">
@@ -9166,6 +9177,9 @@
       <c r="XD4" t="n">
         <v>445.919</v>
       </c>
+      <c r="XE4" t="n">
+        <v>279.63</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -11052,7 +11066,10 @@
         <v>59300.101</v>
       </c>
       <c r="XD5" t="n">
-        <v>68475.292</v>
+        <v>68513.803</v>
+      </c>
+      <c r="XE5" t="n">
+        <v>65775.11900000001</v>
       </c>
     </row>
     <row r="6">
@@ -12940,7 +12957,10 @@
         <v>60164.24</v>
       </c>
       <c r="XD6" t="n">
-        <v>69385.842</v>
+        <v>69424.35400000001</v>
+      </c>
+      <c r="XE6" t="n">
+        <v>66222.291</v>
       </c>
     </row>
     <row r="7">
@@ -14830,6 +14850,9 @@
       <c r="XD7" t="n">
         <v>910.551</v>
       </c>
+      <c r="XE7" t="n">
+        <v>447.171</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -16716,7 +16739,10 @@
         <v>-1559.543</v>
       </c>
       <c r="XD8" t="n">
-        <v>-1024.931</v>
+        <v>-909.859</v>
+      </c>
+      <c r="XE8" t="n">
+        <v>-2190.373</v>
       </c>
     </row>
     <row r="9">
@@ -18604,7 +18630,10 @@
         <v>-1856.902</v>
       </c>
       <c r="XD9" t="n">
-        <v>-1489.562</v>
+        <v>-1374.491</v>
+      </c>
+      <c r="XE9" t="n">
+        <v>-2357.914</v>
       </c>
     </row>
     <row r="10">
@@ -20493,6 +20522,9 @@
       </c>
       <c r="XD10" t="n">
         <v>-464.632</v>
+      </c>
+      <c r="XE10" t="n">
+        <v>-167.542</v>
       </c>
     </row>
     <row r="11">
@@ -21948,7 +21980,10 @@
         <v>-178.639</v>
       </c>
       <c r="XD11" t="n">
-        <v>-4744.794</v>
+        <v>-4859.865</v>
+      </c>
+      <c r="XE11" t="n">
+        <v>-107.427</v>
       </c>
     </row>
     <row r="12">
@@ -23406,6 +23441,9 @@
       <c r="XD12" t="n">
         <v>-6234.356</v>
       </c>
+      <c r="XE12" t="n">
+        <v>-2465.341</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -24862,6 +24900,9 @@
       <c r="XD13" t="n">
         <v>-38.19</v>
       </c>
+      <c r="XE13" t="n">
+        <v>230.213</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -26750,6 +26791,9 @@
       <c r="XD14" t="n">
         <v>1107.074</v>
       </c>
+      <c r="XE14" t="n">
+        <v>-1781.764</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -28638,6 +28682,9 @@
       <c r="XD15" t="n">
         <v>2904.098</v>
       </c>
+      <c r="XE15" t="n">
+        <v>2154.495</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -30526,6 +30573,9 @@
       <c r="XD16" t="n">
         <v>-3043.66</v>
       </c>
+      <c r="XE16" t="n">
+        <v>-1398.491</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -32414,6 +32464,9 @@
       <c r="XD17" t="n">
         <v>-1337.827</v>
       </c>
+      <c r="XE17" t="n">
+        <v>-1510.867</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -34300,7 +34353,10 @@
         <v>731.763</v>
       </c>
       <c r="XD18" t="n">
-        <v>502.921</v>
+        <v>617.992</v>
+      </c>
+      <c r="XE18" t="n">
+        <v>1067.352</v>
       </c>
     </row>
     <row r="19">
@@ -36188,7 +36244,10 @@
         <v>-1293.188</v>
       </c>
       <c r="XD19" t="n">
-        <v>-1992.442</v>
+        <v>-1877.371</v>
+      </c>
+      <c r="XE19" t="n">
+        <v>-1164.613</v>
       </c>
     </row>
     <row r="20">
@@ -38078,6 +38137,9 @@
       <c r="XD20" t="n">
         <v>53835.404</v>
       </c>
+      <c r="XE20" t="n">
+        <v>48309.595</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -39966,6 +40028,9 @@
       <c r="XD21" t="n">
         <v>5061.638</v>
       </c>
+      <c r="XE21" t="n">
+        <v>5415.623</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -41854,6 +41919,9 @@
       <c r="XD22" t="n">
         <v>1361.344</v>
       </c>
+      <c r="XE22" t="n">
+        <v>1543.036</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -43742,6 +43810,9 @@
       <c r="XD23" t="n">
         <v>1000.614</v>
       </c>
+      <c r="XE23" t="n">
+        <v>1004.838</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -45628,7 +45699,10 @@
         <v>1689.891</v>
       </c>
       <c r="XD24" t="n">
-        <v>1801.915</v>
+        <v>1955.497</v>
+      </c>
+      <c r="XE24" t="n">
+        <v>2734.789</v>
       </c>
     </row>
     <row r="25">
@@ -47516,7 +47590,10 @@
         <v>6734.137</v>
       </c>
       <c r="XD25" t="n">
-        <v>7191.975</v>
+        <v>7345.558</v>
+      </c>
+      <c r="XE25" t="n">
+        <v>8316.493</v>
       </c>
     </row>
     <row r="26">
@@ -49406,6 +49483,9 @@
       <c r="XD26" t="n">
         <v>52728.33</v>
       </c>
+      <c r="XE26" t="n">
+        <v>50091.359</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -51294,6 +51374,9 @@
       <c r="XD27" t="n">
         <v>2157.54</v>
       </c>
+      <c r="XE27" t="n">
+        <v>3261.128</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -53182,6 +53265,9 @@
       <c r="XD28" t="n">
         <v>4405.004</v>
       </c>
+      <c r="XE28" t="n">
+        <v>2941.526</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -55070,6 +55156,9 @@
       <c r="XD29" t="n">
         <v>2338.441</v>
       </c>
+      <c r="XE29" t="n">
+        <v>2515.705</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -56956,7 +57045,10 @@
         <v>958.128</v>
       </c>
       <c r="XD30" t="n">
-        <v>1298.994</v>
+        <v>1337.505</v>
+      </c>
+      <c r="XE30" t="n">
+        <v>1667.437</v>
       </c>
     </row>
     <row r="31">
@@ -58844,7 +58936,10 @@
         <v>8027.325</v>
       </c>
       <c r="XD31" t="n">
-        <v>9184.418</v>
+        <v>9222.929</v>
+      </c>
+      <c r="XE31" t="n">
+        <v>9481.106</v>
       </c>
     </row>
     <row r="32">
@@ -60733,6 +60828,9 @@
       </c>
       <c r="XD32" t="n">
         <v>751.7809999999999</v>
+      </c>
+      <c r="XE32" t="n">
+        <v>664.478</v>
       </c>
     </row>
   </sheetData>
